--- a/output/aggregate_tables/value_counts_tier_by_area.xlsx
+++ b/output/aggregate_tables/value_counts_tier_by_area.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tier 1</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>48,58,88</t>
-  </si>
-  <si>
-    <t>Deep Sea</t>
   </si>
   <si>
     <t>Salmon</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,16 +429,16 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,7 +446,7 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3">
         <v>49</v>
@@ -458,7 +455,7 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -540,10 +537,10 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -585,16 +582,16 @@
         <v>61</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -687,16 +684,16 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -704,16 +701,16 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -721,16 +718,16 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -738,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -747,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -755,33 +752,16 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>1373</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="E21">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>1368</v>
-      </c>
-      <c r="C22">
-        <v>734</v>
-      </c>
-      <c r="D22">
-        <v>503</v>
-      </c>
-      <c r="E22">
-        <v>2605</v>
+        <v>2596</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/value_counts_tier_by_area.xlsx
+++ b/output/aggregate_tables/value_counts_tier_by_area.xlsx
@@ -446,13 +446,13 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>178</v>
@@ -752,13 +752,13 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>1373</v>
+        <v>1435</v>
       </c>
       <c r="C21">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="D21">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="E21">
         <v>2596</v>

--- a/output/aggregate_tables/value_counts_tier_by_area.xlsx
+++ b/output/aggregate_tables/value_counts_tier_by_area.xlsx
@@ -480,7 +480,7 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>56</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C21">
         <v>675</v>
@@ -761,7 +761,7 @@
         <v>486</v>
       </c>
       <c r="E21">
-        <v>2596</v>
+        <v>2597</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/value_counts_tier_by_area.xlsx
+++ b/output/aggregate_tables/value_counts_tier_by_area.xlsx
@@ -718,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="C21">
         <v>675</v>
@@ -761,7 +761,7 @@
         <v>486</v>
       </c>
       <c r="E21">
-        <v>2597</v>
+        <v>2587</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/value_counts_tier_by_area.xlsx
+++ b/output/aggregate_tables/value_counts_tier_by_area.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Tier 1</t>
   </si>
@@ -28,13 +28,58 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>48,58,88</t>
-  </si>
-  <si>
-    <t>Salmon</t>
+    <t>Analysis Group</t>
+  </si>
+  <si>
+    <t>Area 21</t>
+  </si>
+  <si>
+    <t>Area 27</t>
+  </si>
+  <si>
+    <t>Area 31</t>
+  </si>
+  <si>
+    <t>Area 34</t>
+  </si>
+  <si>
+    <t>Area 37</t>
+  </si>
+  <si>
+    <t>Area 41</t>
+  </si>
+  <si>
+    <t>Area 47</t>
+  </si>
+  <si>
+    <t>Area 48,58,88</t>
+  </si>
+  <si>
+    <t>Area 51</t>
+  </si>
+  <si>
+    <t>Area 57</t>
+  </si>
+  <si>
+    <t>Area 61</t>
+  </si>
+  <si>
+    <t>Area 67 - Other Stocks</t>
+  </si>
+  <si>
+    <t>Area 67 - Salmon</t>
+  </si>
+  <si>
+    <t>Area 71</t>
+  </si>
+  <si>
+    <t>Area 77</t>
+  </si>
+  <si>
+    <t>Area 81</t>
+  </si>
+  <si>
+    <t>Area 87</t>
   </si>
   <si>
     <t>Sharks</t>
@@ -425,25 +470,25 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>21</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>27</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
         <v>178</v>
@@ -459,11 +504,11 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>31</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>44</v>
@@ -472,12 +517,12 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>34</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>77</v>
@@ -493,11 +538,11 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>37</v>
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -506,12 +551,12 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>41</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>46</v>
@@ -527,11 +572,11 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>47</v>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>36</v>
@@ -540,199 +585,199 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>153</v>
+      </c>
+      <c r="C10">
+        <v>133</v>
+      </c>
+      <c r="D10">
+        <v>185</v>
+      </c>
+      <c r="E10">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>193</v>
+      </c>
+      <c r="C11">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15">
         <v>51</v>
       </c>
-      <c r="B9">
-        <v>156</v>
-      </c>
-      <c r="C9">
-        <v>135</v>
-      </c>
-      <c r="D9">
-        <v>185</v>
-      </c>
-      <c r="E9">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>57</v>
-      </c>
-      <c r="B10">
-        <v>194</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
+      <c r="D15">
+        <v>189</v>
+      </c>
+      <c r="E15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>61</v>
-      </c>
-      <c r="B11">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>37</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>67</v>
-      </c>
-      <c r="B12">
-        <v>81</v>
-      </c>
-      <c r="C12">
-        <v>28</v>
-      </c>
-      <c r="D12">
+      <c r="B16">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>43</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>71</v>
-      </c>
-      <c r="B13">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>51</v>
-      </c>
-      <c r="D13">
-        <v>190</v>
-      </c>
-      <c r="E13">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>77</v>
-      </c>
-      <c r="B14">
-        <v>47</v>
-      </c>
-      <c r="C14">
-        <v>45</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>81</v>
-      </c>
-      <c r="B15">
-        <v>72</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>77</v>
-      </c>
-      <c r="E15">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>87</v>
-      </c>
-      <c r="B16">
-        <v>68</v>
-      </c>
-      <c r="C16">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
       <c r="E16">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>68</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>23</v>
@@ -749,19 +794,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>1426</v>
+        <v>1523</v>
       </c>
       <c r="C21">
-        <v>675</v>
+        <v>566</v>
       </c>
       <c r="D21">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E21">
-        <v>2587</v>
+        <v>2572</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/value_counts_tier_by_area.xlsx
+++ b/output/aggregate_tables/value_counts_tier_by_area.xlsx
@@ -64,10 +64,10 @@
     <t>Area 61</t>
   </si>
   <si>
-    <t>Area 67 - Other Stocks</t>
-  </si>
-  <si>
-    <t>Area 67 - Salmon</t>
+    <t>Area 67</t>
+  </si>
+  <si>
+    <t>Area 67 - Pacific Salmon</t>
   </si>
   <si>
     <t>Area 71</t>
@@ -511,13 +511,13 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,10 +616,10 @@
         <v>133</v>
       </c>
       <c r="D10">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -630,13 +630,13 @@
         <v>193</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -647,13 +647,13 @@
         <v>56</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -749,13 +749,13 @@
         <v>68</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -763,10 +763,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C21">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D21">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E21">
-        <v>2572</v>
+        <v>2569</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/value_counts_tier_by_area.xlsx
+++ b/output/aggregate_tables/value_counts_tier_by_area.xlsx
@@ -511,13 +511,13 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -562,13 +562,13 @@
         <v>46</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -797,16 +797,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C21">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D21">
         <v>482</v>
       </c>
       <c r="E21">
-        <v>2569</v>
+        <v>2572</v>
       </c>
     </row>
   </sheetData>
